--- a/Data/Raw/WHY_CORRELATIONS/Registrations of foreign regional data 2021 Berlin-Brandenburg.xlsx
+++ b/Data/Raw/WHY_CORRELATIONS/Registrations of foreign regional data 2021 Berlin-Brandenburg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristianvaleria/Ironhack/Week_5/Mid_bootcamp_project/DATASETS/B_WHY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristianvaleria/Ironhack/Week_5/Mid_bootcamp_project/Data/Raw/WHY_CORRELATIONS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9FE1D2-0E8F-9142-938B-31244330FF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BFC05-0033-0541-9C4F-480D94428CF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32840" yWindow="-1320" windowWidth="30320" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="1940" windowWidth="30320" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'127365de-ff95-40a8-bed2-c998ec52e5f1'"</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0"/>
+  <calcPr calcId="191029" fullPrecision="0"/>
 </workbook>
 </file>
 
@@ -213,7 +213,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;\–\ #,##0;\–"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -765,10 +765,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="27"/>
     <col min="2" max="2" width="24.6640625" style="7" customWidth="1"/>
@@ -777,7 +777,7 @@
     <col min="7" max="16384" width="11.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
@@ -803,7 +803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1">
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
         <v>41</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1">
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>42</v>
       </c>
@@ -849,168 +849,168 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1">
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9">
-        <v>320204</v>
+        <v>404795</v>
       </c>
       <c r="D5" s="9">
-        <v>83397</v>
+        <v>61397</v>
       </c>
       <c r="E5" s="10">
-        <v>26</v>
+        <v>15.2</v>
       </c>
       <c r="F5" s="9">
-        <v>908</v>
+        <v>566</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1">
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>240542</v>
+        <v>317229</v>
       </c>
       <c r="D6" s="9">
-        <v>50846</v>
+        <v>65660</v>
       </c>
       <c r="E6" s="10">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F6" s="9">
-        <v>442</v>
+        <v>1132</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="12" customHeight="1">
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>317229</v>
+        <v>240542</v>
       </c>
       <c r="D7" s="9">
-        <v>65660</v>
+        <v>50846</v>
       </c>
       <c r="E7" s="10">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="F7" s="9">
-        <v>1132</v>
+        <v>442</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1">
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9">
-        <v>342285</v>
+        <v>292255</v>
       </c>
       <c r="D8" s="9">
-        <v>68197</v>
+        <v>36163</v>
       </c>
       <c r="E8" s="10">
-        <v>19.899999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="F8" s="9">
-        <v>726</v>
+        <v>332</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1">
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9">
-        <v>260576</v>
+        <v>342285</v>
       </c>
       <c r="D9" s="9">
-        <v>50413</v>
+        <v>68197</v>
       </c>
       <c r="E9" s="10">
-        <v>19.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F9" s="9">
-        <v>425</v>
+        <v>726</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1">
+    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9">
-        <v>293139</v>
+        <v>320204</v>
       </c>
       <c r="D10" s="9">
-        <v>53484</v>
+        <v>83397</v>
       </c>
       <c r="E10" s="10">
-        <v>18.2</v>
+        <v>26</v>
       </c>
       <c r="F10" s="9">
-        <v>361</v>
+        <v>908</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="12" customHeight="1">
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="9">
-        <v>404795</v>
+        <v>273188</v>
       </c>
       <c r="D11" s="9">
-        <v>61397</v>
+        <v>28901</v>
       </c>
       <c r="E11" s="10">
-        <v>15.2</v>
+        <v>10.6</v>
       </c>
       <c r="F11" s="9">
-        <v>566</v>
+        <v>254</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1">
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
         <v>50</v>
       </c>
@@ -1033,53 +1033,53 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="12" customHeight="1">
+    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9">
-        <v>292255</v>
+        <v>293139</v>
       </c>
       <c r="D13" s="9">
-        <v>36163</v>
+        <v>53484</v>
       </c>
       <c r="E13" s="10">
-        <v>12.4</v>
+        <v>18.2</v>
       </c>
       <c r="F13" s="9">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="12" customHeight="1">
+    <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9">
-        <v>273188</v>
+        <v>260576</v>
       </c>
       <c r="D14" s="9">
-        <v>28901</v>
+        <v>50413</v>
       </c>
       <c r="E14" s="10">
-        <v>10.6</v>
+        <v>19.3</v>
       </c>
       <c r="F14" s="9">
-        <v>254</v>
+        <v>425</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="12" customHeight="1">
+    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -1090,7 +1090,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="12" customHeight="1">
+    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="12" customHeight="1">
+    <row r="17" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1120,7 +1120,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" ht="12" customHeight="1">
+    <row r="18" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1128,18 +1128,18 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="12" customHeight="1"/>
-    <row r="20" spans="2:9" ht="12" customHeight="1">
+    <row r="19" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="20"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="12" customHeight="1">
+    <row r="21" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="2:9" ht="12" customHeight="1">
+    <row r="22" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="20"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1148,7 +1148,7 @@
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{6407397C-ADFF-F441-9064-13AD6EF12F9B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F14">
-      <sortCondition descending="1" ref="E2:E14"/>
+      <sortCondition ref="A2:A14"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E3:E15">
@@ -1180,7 +1180,7 @@
       <selection activeCell="A4" sqref="A4:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="7"/>
     <col min="2" max="2" width="24.6640625" style="7" customWidth="1"/>
@@ -1188,12 +1188,12 @@
     <col min="7" max="16384" width="11.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
@@ -1210,14 +1210,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1">
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1">
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>12051000</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1">
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>12052000</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1">
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>12053000</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="12" customHeight="1">
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>12054000</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1">
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>12060000</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1">
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>12061000</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1">
+    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>12062000</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="12" customHeight="1">
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>12063000</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1">
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>12064000</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="12" customHeight="1">
+    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>12065000</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="12" customHeight="1">
+    <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>12066000</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="12" customHeight="1">
+    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>12067000</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="12" customHeight="1">
+    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>12068000</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="12" customHeight="1">
+    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>12069000</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1">
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>12070000</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="12" customHeight="1">
+    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>12071000</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="12" customHeight="1">
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>12072000</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="12" customHeight="1">
+    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>12073000</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="12" customHeight="1">
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -1651,14 +1651,14 @@
       <c r="H22" s="15"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1"/>
-    <row r="24" spans="1:9" ht="12" customHeight="1">
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="20"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="20"/>
     </row>
   </sheetData>
